--- a/outputs-HGR-r202/g__Barnesiella.xlsx
+++ b/outputs-HGR-r202/g__Barnesiella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,82 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66097.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.030413205992199e-14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.030413205992199e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.030413205992201e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.006942265358678717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8577258001325669</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1353319345085735</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8577258001325669</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70404.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.653680604538085e-13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.653680604538085e-13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.653680604538083e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07492745979368327</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7914249593740735</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1336475808299472</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7914249593740735</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Barnesiella.xlsx
+++ b/outputs-HGR-r202/g__Barnesiella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__Barnesiella sp002159975</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp002159975</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +936,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +974,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -942,6 +1012,11 @@
           <t>s__Barnesiella sp900538555</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,6 +1050,11 @@
           <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1004,6 +1084,11 @@
         <v>0.7914249593740735</v>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>s__Barnesiella sp900538705</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>s__Barnesiella sp900538705</t>
         </is>

--- a/outputs-HGR-r202/g__Barnesiella.xlsx
+++ b/outputs-HGR-r202/g__Barnesiella.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538705</t>
+          <t>s__Barnesiella sp900538705(reject)</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538705</t>
+          <t>s__Barnesiella sp900538705(reject)</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538705</t>
+          <t>s__Barnesiella sp900538705(reject)</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538705</t>
+          <t>s__Barnesiella sp900538705(reject)</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538555(reject)</t>
         </is>
       </c>
     </row>
